--- a/player_data.xlsx
+++ b/player_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingqi/Desktop/teampartition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846CB568-BD5A-914C-B9B9-4B299653B42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9139E-006C-0643-BBB9-D97B909F3269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="27980" windowHeight="18380" xr2:uid="{8F58AEF8-0A0C-344B-AB88-3ED362C15D30}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="66">
   <si>
     <t>Setter</t>
   </si>
@@ -1005,12 +1005,6 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
       <c r="I14" t="s">
         <v>10</v>
       </c>
@@ -1065,10 +1059,10 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1186,6 +1180,9 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1358,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1377,7 +1374,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1455,10 +1452,10 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
         <v>44</v>
@@ -1798,13 +1795,10 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1885,7 +1879,7 @@
     <sortCondition ref="C2:C47"/>
     <sortCondition ref="B2:B47"/>
   </sortState>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K1048576" xr:uid="{7C74D076-EA55-1047-A177-90DE1DE45E39}">
       <formula1>$A:$A</formula1>
     </dataValidation>

--- a/player_data.xlsx
+++ b/player_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingqi/Desktop/teampartition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9139E-006C-0643-BBB9-D97B909F3269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843514A-3282-424D-8EB1-F1FEB2B782F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="27980" windowHeight="18380" xr2:uid="{8F58AEF8-0A0C-344B-AB88-3ED362C15D30}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="66">
   <si>
     <t>Setter</t>
   </si>
@@ -108,154 +108,154 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Karya Bowen</t>
-  </si>
-  <si>
-    <t>Jingqi Yang</t>
-  </si>
-  <si>
-    <t>Aly Werth</t>
-  </si>
-  <si>
-    <t>Lisa Tsaur</t>
-  </si>
-  <si>
-    <t>XiaoLan Zheng</t>
-  </si>
-  <si>
-    <t>Lindsay DeTurk</t>
-  </si>
-  <si>
-    <t>Liz Hendrick</t>
-  </si>
-  <si>
-    <t>Jess Swenson</t>
-  </si>
-  <si>
-    <t>Nicole Peixoto</t>
-  </si>
-  <si>
-    <t>Sarah Coscia</t>
-  </si>
-  <si>
-    <t>Sarah Dufault</t>
-  </si>
-  <si>
-    <t>Joel Swenson</t>
-  </si>
-  <si>
-    <t>Chuck Mariolis</t>
-  </si>
-  <si>
-    <t>Scott Simon</t>
-  </si>
-  <si>
-    <t>Ken Hetling</t>
-  </si>
-  <si>
-    <t>Jeff Medina</t>
-  </si>
-  <si>
     <t>Conflict 2</t>
   </si>
   <si>
     <t>Conflict 1</t>
   </si>
   <si>
-    <t>Zoe Chevrette</t>
-  </si>
-  <si>
-    <t>Tarrah Beebe</t>
-  </si>
-  <si>
-    <t>Carmen Colomer</t>
-  </si>
-  <si>
-    <t>Sinndy DeJesus</t>
-  </si>
-  <si>
-    <t>Natalia Weirzbicki</t>
-  </si>
-  <si>
-    <t>Jen Doe</t>
-  </si>
-  <si>
-    <t>Kathie Moen</t>
-  </si>
-  <si>
-    <t>Kate Moen</t>
-  </si>
-  <si>
-    <t>Cadia Greene</t>
-  </si>
-  <si>
-    <t>Marriah Vengroff</t>
-  </si>
-  <si>
-    <t>Kim Hendrick</t>
-  </si>
-  <si>
-    <t>Val Santos</t>
-  </si>
-  <si>
-    <t>Glenn Moen</t>
-  </si>
-  <si>
-    <t>Roe Hendrick</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>Sharky Fitzgerald</t>
-  </si>
-  <si>
-    <t>Scott Riggot</t>
-  </si>
-  <si>
-    <t>Ken Holman</t>
-  </si>
-  <si>
-    <t>Brian Kangas</t>
-  </si>
-  <si>
-    <t>Jon Santos</t>
-  </si>
-  <si>
-    <t>Edie Hetling</t>
-  </si>
-  <si>
-    <t>Mike Ferreira</t>
-  </si>
-  <si>
-    <t>Nick Bryant</t>
-  </si>
-  <si>
-    <t>Chris Klunk</t>
-  </si>
-  <si>
-    <t>Brendan Lounsbury</t>
-  </si>
-  <si>
-    <t>Will Klunk</t>
-  </si>
-  <si>
-    <t>Andy Maynard</t>
-  </si>
-  <si>
-    <t>Chris Butts</t>
-  </si>
-  <si>
-    <t>Rob Philpott</t>
-  </si>
-  <si>
-    <t>Will Barnhill</t>
-  </si>
-  <si>
-    <t>Jackie Reif</t>
+    <t>Alexa Argent</t>
+  </si>
+  <si>
+    <t>Bonnie Belle</t>
+  </si>
+  <si>
+    <t>Cat Carmen</t>
+  </si>
+  <si>
+    <t>Don Dawn</t>
+  </si>
+  <si>
+    <t>Ellie Elm</t>
+  </si>
+  <si>
+    <t>Frankie Fern</t>
+  </si>
+  <si>
+    <t>Gemma Gem</t>
+  </si>
+  <si>
+    <t>Holly Han</t>
+  </si>
+  <si>
+    <t>Iris Ira</t>
+  </si>
+  <si>
+    <t>Moni Mika</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+  </si>
+  <si>
+    <t>Piper Parker</t>
+  </si>
+  <si>
+    <t>River Riza</t>
+  </si>
+  <si>
+    <t>Talia Tiana</t>
+  </si>
+  <si>
+    <t>Venus Valentine</t>
+  </si>
+  <si>
+    <t>Qing Qi</t>
+  </si>
+  <si>
+    <t>Wally Worth</t>
+  </si>
+  <si>
+    <t>Zhu Zhang</t>
+  </si>
+  <si>
+    <t>Alex Angus</t>
+  </si>
+  <si>
+    <t>Bryan Bradley</t>
+  </si>
+  <si>
+    <t>Chris Chuck</t>
+  </si>
+  <si>
+    <t>Danny Dark</t>
+  </si>
+  <si>
+    <t>Ezra Elliot</t>
+  </si>
+  <si>
+    <t>Frank Forest</t>
+  </si>
+  <si>
+    <t>Hank Holster</t>
+  </si>
+  <si>
+    <t>Indie Indigo</t>
+  </si>
+  <si>
+    <t>Juniper Jane</t>
+  </si>
+  <si>
+    <t>Janus Juno</t>
+  </si>
+  <si>
+    <t>Ken Kirk</t>
+  </si>
+  <si>
+    <t>Lad Lonnie</t>
+  </si>
+  <si>
+    <t>Mika Morris</t>
+  </si>
+  <si>
+    <t>Neo Nasty</t>
+  </si>
+  <si>
+    <t>Orion Oreo</t>
+  </si>
+  <si>
+    <t>Ruh Roh</t>
+  </si>
+  <si>
+    <t>Stove Stop</t>
+  </si>
+  <si>
+    <t>Veera Vincent</t>
+  </si>
+  <si>
+    <t>Walter White</t>
+  </si>
+  <si>
+    <t>Theo Tuba</t>
+  </si>
+  <si>
+    <t>Luna Forest</t>
+  </si>
+  <si>
+    <t>Kelly Forest</t>
+  </si>
+  <si>
+    <t>Glen Mika</t>
+  </si>
+  <si>
+    <t>Nem Oil</t>
+  </si>
+  <si>
+    <t>Parker Oil</t>
+  </si>
+  <si>
+    <t>Yousef Riza</t>
+  </si>
+  <si>
+    <t>Sanna Star</t>
+  </si>
+  <si>
+    <t>Ye Yang</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -639,7 +639,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
     <col min="10" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -672,23 +672,23 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">INDEX(_xlfn.TEXTSPLIT($A2, " "), 1)</f>
-        <v>Tarrah</v>
+        <v>Alexa</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2">INDEX(_xlfn.TEXTSPLIT($A2, " "), 2)</f>
-        <v>Beebe</v>
+        <v>Argent</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -702,15 +702,15 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">INDEX(_xlfn.TEXTSPLIT($A3, " "), 1)</f>
-        <v>Karya</v>
+        <v>Bonnie</v>
       </c>
       <c r="C3" t="str" cm="1">
         <f t="array" ref="C3">INDEX(_xlfn.TEXTSPLIT($A3, " "), 2)</f>
-        <v>Bowen</v>
+        <v>Belle</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -722,20 +722,20 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">INDEX(_xlfn.TEXTSPLIT($A4, " "), 1)</f>
-        <v>Zoe</v>
+        <v>Cat</v>
       </c>
       <c r="C4" t="str" cm="1">
         <f t="array" ref="C4">INDEX(_xlfn.TEXTSPLIT($A4, " "), 2)</f>
-        <v>Chevrette</v>
+        <v>Carmen</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -755,15 +755,15 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5">INDEX(_xlfn.TEXTSPLIT($A5, " "), 1)</f>
-        <v>Carmen</v>
+        <v>Don</v>
       </c>
       <c r="C5" t="str" cm="1">
         <f t="array" ref="C5">INDEX(_xlfn.TEXTSPLIT($A5, " "), 2)</f>
-        <v>Colomer</v>
+        <v>Dawn</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -777,15 +777,15 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">INDEX(_xlfn.TEXTSPLIT($A6, " "), 1)</f>
-        <v>Sarah</v>
+        <v>Ellie</v>
       </c>
       <c r="C6" t="str" cm="1">
         <f t="array" ref="C6">INDEX(_xlfn.TEXTSPLIT($A6, " "), 2)</f>
-        <v>Coscia</v>
+        <v>Elm</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -805,15 +805,15 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">INDEX(_xlfn.TEXTSPLIT($A7, " "), 1)</f>
-        <v>Sinndy</v>
+        <v>Frankie</v>
       </c>
       <c r="C7" t="str" cm="1">
         <f t="array" ref="C7">INDEX(_xlfn.TEXTSPLIT($A7, " "), 2)</f>
-        <v>DeJesus</v>
+        <v>Fern</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -827,15 +827,15 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">INDEX(_xlfn.TEXTSPLIT($A8, " "), 1)</f>
-        <v>Lindsay</v>
+        <v>Gemma</v>
       </c>
       <c r="C8" t="str" cm="1">
         <f t="array" ref="C8">INDEX(_xlfn.TEXTSPLIT($A8, " "), 2)</f>
-        <v>DeTurk</v>
+        <v>Gem</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -855,15 +855,15 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">INDEX(_xlfn.TEXTSPLIT($A9, " "), 1)</f>
-        <v>Jen</v>
+        <v>Holly</v>
       </c>
       <c r="C9" t="str" cm="1">
         <f t="array" ref="C9">INDEX(_xlfn.TEXTSPLIT($A9, " "), 2)</f>
-        <v>Doe</v>
+        <v>Han</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -877,15 +877,15 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">INDEX(_xlfn.TEXTSPLIT($A10, " "), 1)</f>
-        <v>Sarah</v>
+        <v>Iris</v>
       </c>
       <c r="C10" t="str" cm="1">
         <f t="array" ref="C10">INDEX(_xlfn.TEXTSPLIT($A10, " "), 2)</f>
-        <v>Dufault</v>
+        <v>Ira</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -902,15 +902,15 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">INDEX(_xlfn.TEXTSPLIT($A11, " "), 1)</f>
-        <v>Cadia</v>
+        <v>Juniper</v>
       </c>
       <c r="C11" t="str" cm="1">
         <f t="array" ref="C11">INDEX(_xlfn.TEXTSPLIT($A11, " "), 2)</f>
-        <v>Greene</v>
+        <v>Jane</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -930,15 +930,15 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">INDEX(_xlfn.TEXTSPLIT($A12, " "), 1)</f>
-        <v>Kim</v>
+        <v>Kelly</v>
       </c>
       <c r="C12" t="str" cm="1">
         <f t="array" ref="C12">INDEX(_xlfn.TEXTSPLIT($A12, " "), 2)</f>
-        <v>Hendrick</v>
+        <v>Forest</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -950,20 +950,23 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">INDEX(_xlfn.TEXTSPLIT($A13, " "), 1)</f>
-        <v>Liz</v>
+        <v>Luna</v>
       </c>
       <c r="C13" t="str" cm="1">
         <f t="array" ref="C13">INDEX(_xlfn.TEXTSPLIT($A13, " "), 2)</f>
-        <v>Hendrick</v>
+        <v>Forest</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -978,23 +981,23 @@
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14">INDEX(_xlfn.TEXTSPLIT($A14, " "), 1)</f>
-        <v>Edie</v>
+        <v>Moni</v>
       </c>
       <c r="C14" t="str" cm="1">
         <f t="array" ref="C14">INDEX(_xlfn.TEXTSPLIT($A14, " "), 2)</f>
-        <v>Hetling</v>
+        <v>Mika</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1009,20 +1012,20 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">INDEX(_xlfn.TEXTSPLIT($A15, " "), 1)</f>
-        <v>Kate</v>
+        <v>Nem</v>
       </c>
       <c r="C15" t="str" cm="1">
         <f t="array" ref="C15">INDEX(_xlfn.TEXTSPLIT($A15, " "), 2)</f>
-        <v>Moen</v>
+        <v>Oil</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1037,23 +1040,23 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16" t="str" cm="1">
         <f t="array" ref="B16">INDEX(_xlfn.TEXTSPLIT($A16, " "), 1)</f>
-        <v>Kathie</v>
+        <v>Olive</v>
       </c>
       <c r="C16" t="str" cm="1">
         <f t="array" ref="C16">INDEX(_xlfn.TEXTSPLIT($A16, " "), 2)</f>
-        <v>Moen</v>
+        <v>Oil</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1068,23 +1071,23 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">INDEX(_xlfn.TEXTSPLIT($A17, " "), 1)</f>
-        <v>Nicole</v>
+        <v>Piper</v>
       </c>
       <c r="C17" t="str" cm="1">
         <f t="array" ref="C17">INDEX(_xlfn.TEXTSPLIT($A17, " "), 2)</f>
-        <v>Peixoto</v>
+        <v>Parker</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1104,15 +1107,15 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">INDEX(_xlfn.TEXTSPLIT($A18, " "), 1)</f>
-        <v>Val</v>
+        <v>Qing</v>
       </c>
       <c r="C18" t="str" cm="1">
         <f t="array" ref="C18">INDEX(_xlfn.TEXTSPLIT($A18, " "), 2)</f>
-        <v>Santos</v>
+        <v>Qi</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1129,15 +1132,15 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">INDEX(_xlfn.TEXTSPLIT($A19, " "), 1)</f>
-        <v>Jess</v>
+        <v>River</v>
       </c>
       <c r="C19" t="str" cm="1">
         <f t="array" ref="C19">INDEX(_xlfn.TEXTSPLIT($A19, " "), 2)</f>
-        <v>Swenson</v>
+        <v>Riza</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1149,20 +1152,20 @@
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20">INDEX(_xlfn.TEXTSPLIT($A20, " "), 1)</f>
-        <v>Lisa</v>
+        <v>Sanna</v>
       </c>
       <c r="C20" t="str" cm="1">
         <f t="array" ref="C20">INDEX(_xlfn.TEXTSPLIT($A20, " "), 2)</f>
-        <v>Tsaur</v>
+        <v>Star</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1180,23 +1183,23 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">INDEX(_xlfn.TEXTSPLIT($A21, " "), 1)</f>
-        <v>Marriah</v>
+        <v>Talia</v>
       </c>
       <c r="C21" t="str" cm="1">
         <f t="array" ref="C21">INDEX(_xlfn.TEXTSPLIT($A21, " "), 2)</f>
-        <v>Vengroff</v>
+        <v>Tiana</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -1210,15 +1213,15 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22">INDEX(_xlfn.TEXTSPLIT($A22, " "), 1)</f>
-        <v>Natalia</v>
+        <v>Venus</v>
       </c>
       <c r="C22" t="str" cm="1">
         <f t="array" ref="C22">INDEX(_xlfn.TEXTSPLIT($A22, " "), 2)</f>
-        <v>Weirzbicki</v>
+        <v>Valentine</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1232,15 +1235,15 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">INDEX(_xlfn.TEXTSPLIT($A23, " "), 1)</f>
-        <v>Aly</v>
+        <v>Wally</v>
       </c>
       <c r="C23" t="str" cm="1">
         <f t="array" ref="C23">INDEX(_xlfn.TEXTSPLIT($A23, " "), 2)</f>
-        <v>Werth</v>
+        <v>Worth</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1252,19 +1255,19 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">INDEX(_xlfn.TEXTSPLIT($A24, " "), 1)</f>
-        <v>Jingqi</v>
+        <v>Ye</v>
       </c>
       <c r="C24" t="str" cm="1">
         <f t="array" ref="C24">INDEX(_xlfn.TEXTSPLIT($A24, " "), 2)</f>
@@ -1280,23 +1283,23 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25">INDEX(_xlfn.TEXTSPLIT($A25, " "), 1)</f>
-        <v>XiaoLan</v>
+        <v>Zhu</v>
       </c>
       <c r="C25" t="str" cm="1">
         <f t="array" ref="C25">INDEX(_xlfn.TEXTSPLIT($A25, " "), 2)</f>
-        <v>Zheng</v>
+        <v>Zhang</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -1311,20 +1314,20 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B26" t="str" cm="1">
         <f t="array" ref="B26">INDEX(_xlfn.TEXTSPLIT($A26, " "), 1)</f>
-        <v>Will</v>
+        <v>Alex</v>
       </c>
       <c r="C26" t="str" cm="1">
         <f t="array" ref="C26">INDEX(_xlfn.TEXTSPLIT($A26, " "), 2)</f>
-        <v>Barnhill</v>
+        <v>Angus</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1338,15 +1341,15 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">INDEX(_xlfn.TEXTSPLIT($A27, " "), 1)</f>
-        <v>Nick</v>
+        <v>Bryan</v>
       </c>
       <c r="C27" t="str" cm="1">
         <f t="array" ref="C27">INDEX(_xlfn.TEXTSPLIT($A27, " "), 2)</f>
-        <v>Bryant</v>
+        <v>Bradley</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1360,7 +1363,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">INDEX(_xlfn.TEXTSPLIT($A28, " "), 1)</f>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="C28" t="str" cm="1">
         <f t="array" ref="C28">INDEX(_xlfn.TEXTSPLIT($A28, " "), 2)</f>
-        <v>Butts</v>
+        <v>Chuck</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -1382,15 +1385,15 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29">INDEX(_xlfn.TEXTSPLIT($A29, " "), 1)</f>
-        <v>Mike</v>
+        <v>Danny</v>
       </c>
       <c r="C29" t="str" cm="1">
         <f t="array" ref="C29">INDEX(_xlfn.TEXTSPLIT($A29, " "), 2)</f>
-        <v>Ferreira</v>
+        <v>Dark</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1410,15 +1413,15 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">INDEX(_xlfn.TEXTSPLIT($A30, " "), 1)</f>
-        <v>Sharky</v>
+        <v>Ezra</v>
       </c>
       <c r="C30" t="str" cm="1">
         <f t="array" ref="C30">INDEX(_xlfn.TEXTSPLIT($A30, " "), 2)</f>
-        <v>Fitzgerald</v>
+        <v>Elliot</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1438,15 +1441,15 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31">INDEX(_xlfn.TEXTSPLIT($A31, " "), 1)</f>
-        <v>Roe</v>
+        <v>Frank</v>
       </c>
       <c r="C31" t="str" cm="1">
         <f t="array" ref="C31">INDEX(_xlfn.TEXTSPLIT($A31, " "), 2)</f>
-        <v>Hendrick</v>
+        <v>Forest</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1458,23 +1461,23 @@
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B32" t="str" cm="1">
         <f t="array" ref="B32">INDEX(_xlfn.TEXTSPLIT($A32, " "), 1)</f>
-        <v>Ken</v>
+        <v>Glen</v>
       </c>
       <c r="C32" t="str" cm="1">
         <f t="array" ref="C32">INDEX(_xlfn.TEXTSPLIT($A32, " "), 2)</f>
-        <v>Hetling</v>
+        <v>Mika</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1487,19 +1490,22 @@
       </c>
       <c r="I32" t="s">
         <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B33" t="str" cm="1">
         <f t="array" ref="B33">INDEX(_xlfn.TEXTSPLIT($A33, " "), 1)</f>
-        <v>Ken</v>
+        <v>Hank</v>
       </c>
       <c r="C33" t="str" cm="1">
         <f t="array" ref="C33">INDEX(_xlfn.TEXTSPLIT($A33, " "), 2)</f>
-        <v>Holman</v>
+        <v>Holster</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1516,15 +1522,15 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B34" t="str" cm="1">
         <f t="array" ref="B34">INDEX(_xlfn.TEXTSPLIT($A34, " "), 1)</f>
-        <v>Brian</v>
+        <v>Indie</v>
       </c>
       <c r="C34" t="str" cm="1">
         <f t="array" ref="C34">INDEX(_xlfn.TEXTSPLIT($A34, " "), 2)</f>
-        <v>Kangas</v>
+        <v>Indigo</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1541,15 +1547,15 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B35" t="str" cm="1">
         <f t="array" ref="B35">INDEX(_xlfn.TEXTSPLIT($A35, " "), 1)</f>
-        <v>Chris</v>
+        <v>Janus</v>
       </c>
       <c r="C35" t="str" cm="1">
         <f t="array" ref="C35">INDEX(_xlfn.TEXTSPLIT($A35, " "), 2)</f>
-        <v>Klunk</v>
+        <v>Juno</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1567,20 +1573,20 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B36" t="str" cm="1">
         <f t="array" ref="B36">INDEX(_xlfn.TEXTSPLIT($A36, " "), 1)</f>
-        <v>Will</v>
+        <v>Ken</v>
       </c>
       <c r="C36" t="str" cm="1">
         <f t="array" ref="C36">INDEX(_xlfn.TEXTSPLIT($A36, " "), 2)</f>
-        <v>Klunk</v>
+        <v>Kirk</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1592,20 +1598,20 @@
         <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37">INDEX(_xlfn.TEXTSPLIT($A37, " "), 1)</f>
-        <v>Brendan</v>
+        <v>Lad</v>
       </c>
       <c r="C37" t="str" cm="1">
         <f t="array" ref="C37">INDEX(_xlfn.TEXTSPLIT($A37, " "), 2)</f>
-        <v>Lounsbury</v>
+        <v>Lonnie</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -1619,15 +1625,15 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B38" t="str" cm="1">
         <f t="array" ref="B38">INDEX(_xlfn.TEXTSPLIT($A38, " "), 1)</f>
-        <v>Chuck</v>
+        <v>Mika</v>
       </c>
       <c r="C38" t="str" cm="1">
         <f t="array" ref="C38">INDEX(_xlfn.TEXTSPLIT($A38, " "), 2)</f>
-        <v>Mariolis</v>
+        <v>Morris</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1644,15 +1650,15 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B39" t="str" cm="1">
         <f t="array" ref="B39">INDEX(_xlfn.TEXTSPLIT($A39, " "), 1)</f>
-        <v>Andy</v>
+        <v>Neo</v>
       </c>
       <c r="C39" t="str" cm="1">
         <f t="array" ref="C39">INDEX(_xlfn.TEXTSPLIT($A39, " "), 2)</f>
-        <v>Maynard</v>
+        <v>Nasty</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -1672,15 +1678,15 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B40" t="str" cm="1">
         <f t="array" ref="B40">INDEX(_xlfn.TEXTSPLIT($A40, " "), 1)</f>
-        <v>Jeff</v>
+        <v>Orion</v>
       </c>
       <c r="C40" t="str" cm="1">
         <f t="array" ref="C40">INDEX(_xlfn.TEXTSPLIT($A40, " "), 2)</f>
-        <v>Medina</v>
+        <v>Oreo</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -1696,19 +1702,22 @@
       </c>
       <c r="H40" t="s">
         <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B41" t="str" cm="1">
         <f t="array" ref="B41">INDEX(_xlfn.TEXTSPLIT($A41, " "), 1)</f>
-        <v>Glenn</v>
+        <v>Parker</v>
       </c>
       <c r="C41" t="str" cm="1">
         <f t="array" ref="C41">INDEX(_xlfn.TEXTSPLIT($A41, " "), 2)</f>
-        <v>Moen</v>
+        <v>Oil</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1726,23 +1735,23 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="K41" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B42" t="str" cm="1">
         <f t="array" ref="B42">INDEX(_xlfn.TEXTSPLIT($A42, " "), 1)</f>
-        <v>Rob</v>
+        <v>Ruh</v>
       </c>
       <c r="C42" t="str" cm="1">
         <f t="array" ref="C42">INDEX(_xlfn.TEXTSPLIT($A42, " "), 2)</f>
-        <v>Philpott</v>
+        <v>Roh</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -1759,15 +1768,15 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43">INDEX(_xlfn.TEXTSPLIT($A43, " "), 1)</f>
-        <v>Jackie</v>
+        <v>Stove</v>
       </c>
       <c r="C43" t="str" cm="1">
         <f t="array" ref="C43">INDEX(_xlfn.TEXTSPLIT($A43, " "), 2)</f>
-        <v>Reif</v>
+        <v>Stop</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -1781,15 +1790,15 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B44" t="str" cm="1">
         <f t="array" ref="B44">INDEX(_xlfn.TEXTSPLIT($A44, " "), 1)</f>
-        <v>Scott</v>
+        <v>Theo</v>
       </c>
       <c r="C44" t="str" cm="1">
         <f t="array" ref="C44">INDEX(_xlfn.TEXTSPLIT($A44, " "), 2)</f>
-        <v>Riggot</v>
+        <v>Tuba</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -1803,15 +1812,15 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">INDEX(_xlfn.TEXTSPLIT($A45, " "), 1)</f>
-        <v>Jon</v>
+        <v>Veera</v>
       </c>
       <c r="C45" t="str" cm="1">
         <f t="array" ref="C45">INDEX(_xlfn.TEXTSPLIT($A45, " "), 2)</f>
-        <v>Santos</v>
+        <v>Vincent</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -1825,15 +1834,15 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B46" t="str" cm="1">
         <f t="array" ref="B46">INDEX(_xlfn.TEXTSPLIT($A46, " "), 1)</f>
-        <v>Scott</v>
+        <v>Walter</v>
       </c>
       <c r="C46" t="str" cm="1">
         <f t="array" ref="C46">INDEX(_xlfn.TEXTSPLIT($A46, " "), 2)</f>
-        <v>Simon</v>
+        <v>White</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -1850,15 +1859,15 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47">INDEX(_xlfn.TEXTSPLIT($A47, " "), 1)</f>
-        <v>Joel</v>
+        <v>Yousef</v>
       </c>
       <c r="C47" t="str" cm="1">
         <f t="array" ref="C47">INDEX(_xlfn.TEXTSPLIT($A47, " "), 2)</f>
-        <v>Swenson</v>
+        <v>Riza</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -1870,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1889,7 @@
     <sortCondition ref="B2:B47"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K1048576" xr:uid="{7C74D076-EA55-1047-A177-90DE1DE45E39}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 J2:J1048576" xr:uid="{7C74D076-EA55-1047-A177-90DE1DE45E39}">
       <formula1>$A:$A</formula1>
     </dataValidation>
   </dataValidations>
